--- a/biology/Botanique/Floralies_gantoises/Floralies_gantoises.xlsx
+++ b/biology/Botanique/Floralies_gantoises/Floralies_gantoises.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Floralies gantoises (Floraliën Gent) sont une exposition quadriennale de fleurs et de plantes organisée par la Société royale d'agriculture et de botanique de Gand qui se tient au printemps dans la ville de Gand, en Belgique. 
 </t>
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Des fêtes des fleurs sont organisées à Gand depuis 1648 par la confrérie de Sainte Dorothée. La ville n'en compte pas moins de trois, qui décorent chaque année l'autel de leur église. Après l'abolition par Joseph II, les producteurs de fleurs fondent une nouvelle association en 1808, la Société d'Agriculture et de Botanique de Gand (à partir de 1818, Société royale d'agriculture et d'herbologie de Gand (Koninklijke Maatschappij voor Landbouw en Plantkunde (nl))). Cela s'est passé dans l'auberge de Au Jardin de Frascati sur la Coupure. Leur objectif était d'organiser des expositions de fleurs suivant l'exemple anglais, mais ensuite conjointement. 
 L'association organise les premières floralies le 6 février 1809 à Frascati. La salle faisait à peine 48 m². Il y avait beaucoup de plantes rares pour cette période, car elles venaient de fleurir, en hiver. Il y avait aussi une sorte de compétition avec des prix pour les plus belles plantes. L'Erica triflora (sv) remporte la médaille d'encouragement et les Camellia japonica et Cyclamen persicum reçoivent une mention honorable. 
@@ -548,13 +562,12 @@
           <t>Renouvellement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La dernière édition a eu lieu en 2016. Flanders Expo a été délaissé et l'exposition a déménagé dans le quartier des arts (Bijlokesite, Citadelpark, Leopoldskazerne et Sint-Pietersplein) à Gand. À ces quatre endroits, fleurs et plantes ont été présentées de manière surprenante dans des jardins inspirants, des œuvres d'art florales et des projets d'art et de nature. 
-La dernière édition n'a pas été un grand succès, en partie à cause du mauvais temps et des frais d'entrée élevés. En plus de ces problèmes, il y avait aussi une mauvaise gestion financière qui a laissé les floralies dans un gouffre financier. La société de conseil d'Ine Marien a été appelée à repositionner les  floralies , mais cela s'est traduit par un coût total de plus de quatre millions d'euros[1],[2].
-Au Palais des Floralies
-En septembre 2017, l'organisation a annoncé que la prochaine édition - en 2020 - aura lieu à nouveau au Palais des Floralies (Floraliënpaleis) de Gand et dans le parc de la Citadelle environnant, le cœur vert de la ville de Gand. Avec une équipe renouvelée, avec un nouveau président et un nouveau directeur général, le comité de direction se concentre principalement sur l'authenticité et l'essence, sur une expérience verte avec une reconnaissance claire pour l'entreprise professionnelle. Le thème de l'édition Floralies 2020 est « Mijn Paradijs, een wereldse tuin! » ("Mon paradis, un jardin mondain !").
-L'organisation signale que les floralies sont reportées à l'année 2021 en raison de la pandémie de maladie à coronavirus de 2019-2020[3].
+La dernière édition n'a pas été un grand succès, en partie à cause du mauvais temps et des frais d'entrée élevés. En plus de ces problèmes, il y avait aussi une mauvaise gestion financière qui a laissé les floralies dans un gouffre financier. La société de conseil d'Ine Marien a été appelée à repositionner les  floralies , mais cela s'est traduit par un coût total de plus de quatre millions d'euros,.
 </t>
         </is>
       </c>
@@ -580,10 +593,50 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Renouvellement</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Au Palais des Floralies</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En septembre 2017, l'organisation a annoncé que la prochaine édition - en 2020 - aura lieu à nouveau au Palais des Floralies (Floraliënpaleis) de Gand et dans le parc de la Citadelle environnant, le cœur vert de la ville de Gand. Avec une équipe renouvelée, avec un nouveau président et un nouveau directeur général, le comité de direction se concentre principalement sur l'authenticité et l'essence, sur une expérience verte avec une reconnaissance claire pour l'entreprise professionnelle. Le thème de l'édition Floralies 2020 est « Mijn Paradijs, een wereldse tuin! » ("Mon paradis, un jardin mondain !").
+L'organisation signale que les floralies sont reportées à l'année 2021 en raison de la pandémie de maladie à coronavirus de 2019-2020.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Floralies_gantoises</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Floralies_gantoises</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Trivia</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Il y a une industrie florissante de fleurs autour de Gand, notamment la culture de l'azalée, l'une des variétés de fleurs cultivées dans un grand nombre de variétés.
 La Poste belge émet généralement divers timbres en l'honneur des Floralies gantoises.
